--- a/01_LeetCode/03_LeetCode_Redo_3/Guide_Sheet.xlsx
+++ b/01_LeetCode/03_LeetCode_Redo_3/Guide_Sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="409">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete</t>
   </si>
   <si>
     <t xml:space="preserve">Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
@@ -1262,6 +1265,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1295,6 +1299,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1408,13 +1413,13 @@
   <dimension ref="A1:O228"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="73.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.34"/>
@@ -1494,6 +1499,9 @@
         <f aca="false">COUNTIF(C:C, "=" &amp; C3)</f>
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1503,10 +1511,10 @@
         <v>1438</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1517,6 +1525,9 @@
       <c r="G4" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C4)</f>
         <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,10 +1538,10 @@
         <v>727</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
@@ -1551,10 +1562,10 @@
         <v>946</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -1575,10 +1586,10 @@
         <v>809</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -1599,13 +1610,13 @@
         <v>359</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -1623,10 +1634,10 @@
         <v>1153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
@@ -1647,10 +1658,10 @@
         <v>1548</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
@@ -1671,10 +1682,10 @@
         <v>846</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -1695,10 +1706,10 @@
         <v>471</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>10</v>
@@ -1719,10 +1730,10 @@
         <v>465</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
@@ -1743,10 +1754,10 @@
         <v>1088</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
@@ -1767,13 +1778,13 @@
         <v>690</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1791,10 +1802,10 @@
         <v>715</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
@@ -1815,10 +1826,10 @@
         <v>489</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
@@ -1839,10 +1850,10 @@
         <v>552</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>10</v>
@@ -1863,10 +1874,10 @@
         <v>1060</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -1887,10 +1898,10 @@
         <v>1376</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -1911,10 +1922,10 @@
         <v>833</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -1935,10 +1946,10 @@
         <v>1477</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -1959,10 +1970,10 @@
         <v>995</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>10</v>
@@ -1983,10 +1994,10 @@
         <v>1368</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>10</v>
@@ -2007,10 +2018,10 @@
         <v>753</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>10</v>
@@ -2031,10 +2042,10 @@
         <v>1499</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>10</v>
@@ -2055,10 +2066,10 @@
         <v>308</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>10</v>
@@ -2079,10 +2090,10 @@
         <v>1138</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -2103,10 +2114,10 @@
         <v>1293</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>10</v>
@@ -2127,10 +2138,10 @@
         <v>1631</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -2151,10 +2162,10 @@
         <v>1146</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -2175,10 +2186,10 @@
         <v>1377</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>10</v>
@@ -2199,10 +2210,10 @@
         <v>1110</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -2223,10 +2234,10 @@
         <v>1231</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>10</v>
@@ -2247,10 +2258,10 @@
         <v>329</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>10</v>
@@ -2271,10 +2282,10 @@
         <v>444</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -2295,10 +2306,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>10</v>
@@ -2319,10 +2330,10 @@
         <v>1277</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -2343,10 +2354,10 @@
         <v>315</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>10</v>
@@ -2367,10 +2378,10 @@
         <v>853</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>14</v>
@@ -2391,10 +2402,10 @@
         <v>1504</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>14</v>
@@ -2415,10 +2426,10 @@
         <v>729</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>14</v>
@@ -2439,10 +2450,10 @@
         <v>900</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>14</v>
@@ -2463,10 +2474,10 @@
         <v>1483</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>10</v>
@@ -2487,10 +2498,10 @@
         <v>1406</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>10</v>
@@ -2511,10 +2522,10 @@
         <v>792</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
@@ -2535,10 +2546,10 @@
         <v>1240</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>10</v>
@@ -2559,10 +2570,10 @@
         <v>1296</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>14</v>
@@ -2583,10 +2594,10 @@
         <v>562</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>14</v>
@@ -2607,10 +2618,10 @@
         <v>752</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>14</v>
@@ -2631,10 +2642,10 @@
         <v>1345</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>10</v>
@@ -2655,10 +2666,10 @@
         <v>777</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>14</v>
@@ -2679,10 +2690,10 @@
         <v>1444</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>10</v>
@@ -2703,10 +2714,10 @@
         <v>248</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>10</v>
@@ -2727,10 +2738,10 @@
         <v>527</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>10</v>
@@ -2751,10 +2762,10 @@
         <v>1244</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>14</v>
@@ -2775,10 +2786,10 @@
         <v>911</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>14</v>
@@ -2799,10 +2810,10 @@
         <v>379</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -2823,10 +2834,10 @@
         <v>165</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -2847,10 +2858,10 @@
         <v>659</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -2877,16 +2888,16 @@
         <v>953</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G62" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C62)</f>
@@ -2908,16 +2919,16 @@
         <v>1249</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G63" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C63)</f>
@@ -2939,16 +2950,16 @@
         <v>1428</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G64" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C64)</f>
@@ -2970,16 +2981,16 @@
         <v>680</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G65" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C65)</f>
@@ -3001,16 +3012,16 @@
         <v>415</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C66)</f>
@@ -3032,16 +3043,16 @@
         <v>560</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G67" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C67)</f>
@@ -3063,16 +3074,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G68" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C68)</f>
@@ -3094,16 +3105,16 @@
         <v>1570</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G69" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C69)</f>
@@ -3125,16 +3136,16 @@
         <v>199</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G70" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C70)</f>
@@ -3156,16 +3167,16 @@
         <v>301</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G71" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C71)</f>
@@ -3187,16 +3198,16 @@
         <v>125</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G72" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C72)</f>
@@ -3218,16 +3229,16 @@
         <v>211</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G73" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C73)</f>
@@ -3249,16 +3260,16 @@
         <v>124</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G74" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C74)</f>
@@ -3280,16 +3291,16 @@
         <v>426</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G75" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C75)</f>
@@ -3311,16 +3322,16 @@
         <v>636</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G76" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C76)</f>
@@ -3342,16 +3353,16 @@
         <v>158</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G77" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C77)</f>
@@ -3373,16 +3384,16 @@
         <v>29</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G78" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C78)</f>
@@ -3404,16 +3415,16 @@
         <v>938</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G79" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C79)</f>
@@ -3435,16 +3446,16 @@
         <v>278</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G80" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C80)</f>
@@ -3466,16 +3477,16 @@
         <v>297</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G81" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C81)</f>
@@ -3497,16 +3508,16 @@
         <v>523</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G82" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C82)</f>
@@ -3528,16 +3539,16 @@
         <v>282</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G83" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C83)</f>
@@ -3559,16 +3570,16 @@
         <v>986</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G84" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C84)</f>
@@ -3590,16 +3601,16 @@
         <v>987</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G85" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C85)</f>
@@ -3621,16 +3632,16 @@
         <v>34</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G86" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C86)</f>
@@ -3652,16 +3663,16 @@
         <v>340</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G87" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C87)</f>
@@ -3683,16 +3694,16 @@
         <v>708</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G88" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C88)</f>
@@ -3714,16 +3725,16 @@
         <v>543</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G89" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C89)</f>
@@ -3745,16 +3756,16 @@
         <v>270</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G90" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C90)</f>
@@ -3776,16 +3787,16 @@
         <v>670</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G91" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C91)</f>
@@ -3807,16 +3818,16 @@
         <v>438</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G92" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C92)</f>
@@ -3838,16 +3849,16 @@
         <v>621</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G93" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C93)</f>
@@ -3869,16 +3880,16 @@
         <v>31</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G94" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C94)</f>
@@ -3900,16 +3911,16 @@
         <v>133</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G95" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C95)</f>
@@ -3931,16 +3942,16 @@
         <v>249</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G96" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C96)</f>
@@ -3962,16 +3973,16 @@
         <v>378</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G97" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C97)</f>
@@ -3993,16 +4004,16 @@
         <v>785</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G98" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C98)</f>
@@ -4024,16 +4035,16 @@
         <v>825</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G99" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C99)</f>
@@ -4055,16 +4066,16 @@
         <v>398</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G100" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C100)</f>
@@ -4086,16 +4097,16 @@
         <v>1026</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G101" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C101)</f>
@@ -4117,16 +4128,16 @@
         <v>689</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G102" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C102)</f>
@@ -4148,16 +4159,16 @@
         <v>1498</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G103" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C103)</f>
@@ -4179,16 +4190,16 @@
         <v>827</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G104" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C104)</f>
@@ -4210,16 +4221,16 @@
         <v>314</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G105" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C105)</f>
@@ -4241,16 +4252,16 @@
         <v>896</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G106" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C106)</f>
@@ -4272,16 +4283,16 @@
         <v>658</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G107" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C107)</f>
@@ -4309,16 +4320,16 @@
         <v>763</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G109" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C109)</f>
@@ -4333,16 +4344,16 @@
         <v>1335</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G110" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C110)</f>
@@ -4357,16 +4368,16 @@
         <v>1192</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G111" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C111)</f>
@@ -4381,16 +4392,16 @@
         <v>937</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G112" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C112)</f>
@@ -4405,16 +4416,16 @@
         <v>1152</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G113" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C113)</f>
@@ -4429,16 +4440,16 @@
         <v>692</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G114" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C114)</f>
@@ -4453,16 +4464,16 @@
         <v>819</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G115" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C115)</f>
@@ -4477,16 +4488,16 @@
         <v>957</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G116" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C116)</f>
@@ -4501,16 +4512,16 @@
         <v>138</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G117" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C117)</f>
@@ -4525,16 +4536,16 @@
         <v>572</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G118" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C118)</f>
@@ -4549,16 +4560,16 @@
         <v>221</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G119" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C119)</f>
@@ -4573,16 +4584,16 @@
         <v>472</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G120" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C120)</f>
@@ -4597,16 +4608,16 @@
         <v>547</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G121" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C121)</f>
@@ -4621,16 +4632,16 @@
         <v>1010</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G122" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C122)</f>
@@ -4645,16 +4656,16 @@
         <v>682</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G123" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C123)</f>
@@ -4669,16 +4680,16 @@
         <v>127</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G124" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C124)</f>
@@ -4693,16 +4704,16 @@
         <v>994</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G125" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C125)</f>
@@ -4717,16 +4728,16 @@
         <v>863</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G126" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C126)</f>
@@ -4741,16 +4752,16 @@
         <v>21</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G127" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C127)</f>
@@ -4765,7 +4776,7 @@
         <v>253</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -4774,7 +4785,7 @@
         <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G128" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C128)</f>
@@ -4789,16 +4800,16 @@
         <v>1120</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G129" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C129)</f>
@@ -4813,16 +4824,16 @@
         <v>588</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G130" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C130)</f>
@@ -4837,16 +4848,16 @@
         <v>694</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G131" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C131)</f>
@@ -4861,16 +4872,16 @@
         <v>103</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G132" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C132)</f>
@@ -4885,16 +4896,16 @@
         <v>123</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G133" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C133)</f>
@@ -4909,16 +4920,16 @@
         <v>323</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G134" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C134)</f>
@@ -4933,16 +4944,16 @@
         <v>1597</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G135" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C135)</f>
@@ -4957,16 +4968,16 @@
         <v>735</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G136" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C136)</f>
@@ -4981,16 +4992,16 @@
         <v>437</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G137" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C137)</f>
@@ -5005,16 +5016,16 @@
         <v>1520</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G138" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C138)</f>
@@ -5029,16 +5040,16 @@
         <v>1167</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G139" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C139)</f>
@@ -5053,16 +5064,16 @@
         <v>239</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G140" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C140)</f>
@@ -5077,16 +5088,16 @@
         <v>733</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G141" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C141)</f>
@@ -5101,16 +5112,16 @@
         <v>105</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G142" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C142)</f>
@@ -5125,16 +5136,16 @@
         <v>1328</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G143" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C143)</f>
@@ -5149,16 +5160,16 @@
         <v>1429</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G144" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C144)</f>
@@ -5173,16 +5184,16 @@
         <v>74</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G145" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C145)</f>
@@ -5197,16 +5208,16 @@
         <v>185</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G146" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C146)</f>
@@ -5221,16 +5232,16 @@
         <v>79</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G147" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C147)</f>
@@ -5245,16 +5256,16 @@
         <v>1091</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G148" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C148)</f>
@@ -5269,16 +5280,16 @@
         <v>901</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G149" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C149)</f>
@@ -5293,16 +5304,16 @@
         <v>3</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G150" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C150)</f>
@@ -5317,16 +5328,16 @@
         <v>1268</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G151" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C151)</f>
@@ -5341,16 +5352,16 @@
         <v>126</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G152" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C152)</f>
@@ -5365,16 +5376,16 @@
         <v>681</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G153" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C153)</f>
@@ -5389,16 +5400,16 @@
         <v>121</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G154" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C154)</f>
@@ -5413,16 +5424,16 @@
         <v>399</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G155" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C155)</f>
@@ -5437,16 +5448,16 @@
         <v>1479</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G156" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C156)</f>
@@ -5467,16 +5478,16 @@
         <v>244</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G158" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C158)</f>
@@ -5491,16 +5502,16 @@
         <v>364</v>
       </c>
       <c r="C159" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G159" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C159)</f>
@@ -5515,7 +5526,7 @@
         <v>1235</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>9</v>
@@ -5524,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G160" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C160)</f>
@@ -5539,16 +5550,16 @@
         <v>366</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G161" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C161)</f>
@@ -5563,16 +5574,16 @@
         <v>698</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G162" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C162)</f>
@@ -5587,16 +5598,16 @@
         <v>149</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G163" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C163)</f>
@@ -5611,16 +5622,16 @@
         <v>671</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G164" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C164)</f>
@@ -5635,16 +5646,16 @@
         <v>68</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G165" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C165)</f>
@@ -5659,16 +5670,16 @@
         <v>605</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G166" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C166)</f>
@@ -5683,16 +5694,16 @@
         <v>160</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G167" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C167)</f>
@@ -5713,16 +5724,16 @@
         <v>1383</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G169" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C169)</f>
@@ -5737,16 +5748,16 @@
         <v>1359</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G170" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C170)</f>
@@ -5761,16 +5772,16 @@
         <v>759</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G171" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C171)</f>
@@ -5785,16 +5796,16 @@
         <v>1472</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G172" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C172)</f>
@@ -5809,16 +5820,16 @@
         <v>1197</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G173" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C173)</f>
@@ -5833,16 +5844,16 @@
         <v>795</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G174" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C174)</f>
@@ -5857,16 +5868,16 @@
         <v>1174</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G175" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C175)</f>
@@ -5881,16 +5892,16 @@
         <v>1173</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G176" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C176)</f>
@@ -5911,16 +5922,16 @@
         <v>391</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G178" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C178)</f>
@@ -5935,16 +5946,16 @@
         <v>284</v>
       </c>
       <c r="C179" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="G179" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C179)</f>
@@ -5959,16 +5970,16 @@
         <v>341</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G180" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C180)</f>
@@ -5983,16 +5994,16 @@
         <v>546</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G181" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C181)</f>
@@ -6007,16 +6018,16 @@
         <v>805</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G182" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C182)</f>
@@ -6031,16 +6042,16 @@
         <v>1095</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G183" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C183)</f>
@@ -6055,16 +6066,16 @@
         <v>564</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G184" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C184)</f>
@@ -6079,16 +6090,16 @@
         <v>420</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G185" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C185)</f>
@@ -6103,16 +6114,16 @@
         <v>192</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G186" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C186)</f>
@@ -6127,16 +6138,16 @@
         <v>396</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G187" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C187)</f>
@@ -6151,16 +6162,16 @@
         <v>996</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G188" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C188)</f>
@@ -6175,16 +6186,16 @@
         <v>834</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G189" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C189)</f>
@@ -6199,16 +6210,16 @@
         <v>981</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G190" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C190)</f>
@@ -6223,16 +6234,16 @@
         <v>917</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G191" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C191)</f>
@@ -6247,16 +6258,16 @@
         <v>36</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G192" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C192)</f>
@@ -6271,16 +6282,16 @@
         <v>457</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G193" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C193)</f>
@@ -6301,16 +6312,16 @@
         <v>1239</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G195" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C195)</f>
@@ -6325,16 +6336,16 @@
         <v>41</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G196" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C196)</f>
@@ -6349,16 +6360,16 @@
         <v>54</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G197" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C197)</f>
@@ -6373,16 +6384,16 @@
         <v>1578</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G198" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C198)</f>
@@ -6397,16 +6408,16 @@
         <v>1188</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G199" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C199)</f>
@@ -6421,16 +6432,16 @@
         <v>351</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G200" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C200)</f>
@@ -6445,16 +6456,16 @@
         <v>445</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G201" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C201)</f>
@@ -6469,16 +6480,16 @@
         <v>25</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G202" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C202)</f>
@@ -6493,16 +6504,16 @@
         <v>214</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G203" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C203)</f>
@@ -6517,16 +6528,16 @@
         <v>1058</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G204" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C204)</f>
@@ -6541,16 +6552,16 @@
         <v>1494</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G205" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C205)</f>
@@ -6565,16 +6576,16 @@
         <v>1576</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G206" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C206)</f>
@@ -6589,16 +6600,16 @@
         <v>1206</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G207" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C207)</f>
@@ -6613,16 +6624,16 @@
         <v>1573</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G208" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C208)</f>
@@ -6637,16 +6648,16 @@
         <v>266</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G209" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C209)</f>
@@ -6661,16 +6672,16 @@
         <v>287</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G210" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C210)</f>
@@ -6685,16 +6696,16 @@
         <v>428</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G211" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C211)</f>
@@ -6709,16 +6720,16 @@
         <v>545</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G212" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C212)</f>
@@ -6733,16 +6744,16 @@
         <v>232</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G213" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C213)</f>
@@ -6757,16 +6768,16 @@
         <v>1466</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G214" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C214)</f>
@@ -6781,16 +6792,16 @@
         <v>1155</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G215" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C215)</f>
@@ -6805,16 +6816,16 @@
         <v>1344</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G216" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C216)</f>
@@ -6829,16 +6840,16 @@
         <v>836</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G217" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C217)</f>
@@ -6853,16 +6864,16 @@
         <v>33</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G218" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C218)</f>
@@ -6877,16 +6888,16 @@
         <v>267</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G219" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C219)</f>
@@ -6901,16 +6912,16 @@
         <v>45</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G220" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C220)</f>
@@ -6925,16 +6936,16 @@
         <v>116</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G221" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C221)</f>
@@ -6949,16 +6960,16 @@
         <v>1647</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G222" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C222)</f>
@@ -6973,16 +6984,16 @@
         <v>19</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G223" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C223)</f>
@@ -6997,16 +7008,16 @@
         <v>919</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G224" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C224)</f>
@@ -7021,16 +7032,16 @@
         <v>403</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G225" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C225)</f>
@@ -7045,16 +7056,16 @@
         <v>296</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G226" s="1" t="n">
         <f aca="false">COUNTIF(C:C, "=" &amp; C226)</f>
